--- a/KetQuaTest_RegisterServlet.xlsx
+++ b/KetQuaTest_RegisterServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -35,51 +35,67 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>REG_SERV_04</t>
+  </si>
+  <si>
+    <t>Servlet: Lỗi Database</t>
+  </si>
+  <si>
+    <t>User: valid</t>
+  </si>
+  <si>
+    <t>1. Mock DAO register=false</t>
+  </si>
+  <si>
+    <t>Redirect: Register.jsp + Error</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>REG_SERV_02</t>
+  </si>
+  <si>
+    <t>Servlet: Mật khẩu yếu</t>
+  </si>
+  <si>
+    <t>Pass: 123</t>
+  </si>
+  <si>
+    <t>1. Mock pass ngắn (&lt;6 ký tự)
+2. Call doPost</t>
+  </si>
+  <si>
+    <t>Báo lỗi 'Mật khẩu quá yếu'</t>
+  </si>
+  <si>
     <t>REG_SERV_03</t>
   </si>
   <si>
-    <t>Servlet: Lỗi Database</t>
-  </si>
-  <si>
-    <t>1. Mock DAO register=false</t>
-  </si>
-  <si>
-    <t>User: valid</t>
-  </si>
-  <si>
-    <t>Redirect: Register.jsp + Error</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>REG_SERV_02</t>
-  </si>
-  <si>
     <t>Servlet: Trùng tên đăng nhập</t>
   </si>
   <si>
+    <t>User: exist</t>
+  </si>
+  <si>
     <t>1. Mock DAO checkExists=true</t>
   </si>
   <si>
-    <t>User: exist</t>
-  </si>
-  <si>
     <t>REG_SERV_01</t>
   </si>
   <si>
     <t>Servlet: Đăng ký thành công</t>
   </si>
   <si>
-    <t>1. Mock input
+    <t>User: new, Pass: 123456</t>
+  </si>
+  <si>
+    <t>1. Mock input hợp lệ
 2. Mock DAO register=true
 3. Call doPost</t>
-  </si>
-  <si>
-    <t>User: new, Pass: 123</t>
   </si>
   <si>
     <t>Redirect: Login.jsp</t>
@@ -160,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -168,8 +184,8 @@
   <cols>
     <col min="1" max="1" width="13.64453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.97265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.20703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.8125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.20703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.61328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
@@ -235,7 +251,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -246,24 +262,47 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
         <v>13</v>
       </c>
     </row>
